--- a/result3.xlsx
+++ b/result3.xlsx
@@ -505,13 +505,13 @@
         <v>180</v>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>17800</v>
+        <v>17792.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>1800</v>
       </c>
       <c r="H2" t="n">
-        <v>17440</v>
+        <v>17597.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1755.9</v>
+        <v>1766.88</v>
       </c>
       <c r="K2" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -547,13 +547,13 @@
         <v>180</v>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>17560</v>
+        <v>17642.5</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -562,16 +562,16 @@
         <v>1800</v>
       </c>
       <c r="H3" t="n">
-        <v>17080</v>
+        <v>17380</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1721.6</v>
+        <v>1739.98</v>
       </c>
       <c r="K3" t="n">
-        <v>1.85</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -585,41 +585,19 @@
           <t>FY1</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>180</v>
-      </c>
-      <c r="C4" t="n">
-        <v>120</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>17320</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1800</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16720</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1677.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -627,19 +605,41 @@
           <t>FY2</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>216.65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>135</v>
+      </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>11350.18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>916.4400000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10635.37</v>
+      </c>
+      <c r="I5" t="n">
+        <v>384.52</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1186.56</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -691,31 +691,31 @@
         <v>113.43</v>
       </c>
       <c r="C8" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>4997.78</v>
+        <v>5012.09</v>
       </c>
       <c r="F8" t="n">
-        <v>-687.87</v>
+        <v>-720.9</v>
       </c>
       <c r="G8" t="n">
         <v>700</v>
       </c>
       <c r="H8" t="n">
-        <v>4663.7</v>
+        <v>4647</v>
       </c>
       <c r="I8" t="n">
-        <v>82.84</v>
+        <v>121.38</v>
       </c>
       <c r="J8" t="n">
-        <v>523.6</v>
+        <v>473.42</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -729,19 +729,41 @@
           <t>FY3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>113.43</v>
+      </c>
+      <c r="C9" t="n">
+        <v>135</v>
+      </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4910.08</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-485.56</v>
+      </c>
+      <c r="G9" t="n">
+        <v>700</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4593.31</v>
+      </c>
+      <c r="I9" t="n">
+        <v>245.24</v>
+      </c>
+      <c r="J9" t="n">
+        <v>529.4299999999999</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -833,16 +855,16 @@
         <v>131.25</v>
       </c>
       <c r="C14" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>11892.21</v>
+        <v>11905.07</v>
       </c>
       <c r="F14" t="n">
-        <v>-736.98</v>
+        <v>-751.64</v>
       </c>
       <c r="G14" t="n">
         <v>1300</v>
@@ -854,10 +876,10 @@
         <v>-376.12</v>
       </c>
       <c r="J14" t="n">
-        <v>1221.6</v>
+        <v>1232.92</v>
       </c>
       <c r="K14" t="n">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -871,19 +893,41 @@
           <t>FY5</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>131.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>135</v>
+      </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>11744.84</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-568.96</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H15" t="n">
+        <v>11219.63</v>
+      </c>
+      <c r="I15" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1129.43</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -891,19 +935,41 @@
           <t>FY5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>131.25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>135</v>
+      </c>
       <c r="D16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>11308.65</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-71.64</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10934.77</v>
+      </c>
+      <c r="I16" t="n">
+        <v>354.62</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1213.56</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
